--- a/biology/Botanique/Gnetum/Gnetum.xlsx
+++ b/biology/Botanique/Gnetum/Gnetum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnetum est un genre de plantes gnétophytes. Ce sont des plantes que l'on a longtemps considérées comme proches des plantes Angiospermes. On les estime plutôt proche des Gymnospermes à l'heure actuelle. Gnetum est le seul genre de la famille des Gnetaceae. Les espèces Gnetum africanum et, dans une moindre mesure, Gnetum buchholzianum sont récoltées surtout comme ressource alimentaire en Afrique, mais aussi comme plantes médicinales. Elles font l'objet de tentatives de domestication pour en généraliser la culture afin d'épargner les plantes sauvages[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnetum est un genre de plantes gnétophytes. Ce sont des plantes que l'on a longtemps considérées comme proches des plantes Angiospermes. On les estime plutôt proche des Gymnospermes à l'heure actuelle. Gnetum est le seul genre de la famille des Gnetaceae. Les espèces Gnetum africanum et, dans une moindre mesure, Gnetum buchholzianum sont récoltées surtout comme ressource alimentaire en Afrique, mais aussi comme plantes médicinales. Elles font l'objet de tentatives de domestication pour en généraliser la culture afin d'épargner les plantes sauvages.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Gnetum est dérivé du malais gnemon utan, suivant la description de la plante par le naturaliste hollandais Rumphius[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Gnetum est dérivé du malais gnemon utan, suivant la description de la plante par le naturaliste hollandais Rumphius,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Section Gnetum
-Gnetum subsect. Gnetum - 2 espèces d'arbres; Asie du Sud-Est
+          <t>Section Gnetum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gnetum subsect. Gnetum - 2 espèces d'arbres; Asie du Sud-Est
 Gnetum gnemon L.
 Gnetum subsect. Micrognemones - 2 espèces de lianes; Afrique de l'Ouest.
 Gnetum africanum Welw.
@@ -558,9 +577,43 @@
 Gnetum paniculatum 	Spruce ex Benth.
 Gnetum schwackeanum Taub. ex Schenk
 Gnetum urens (Aubl.) Blume
-Gnetum venosum Spruce
-Section Cylindrostachys
-Gnetum subsect. Cylindrostachys -20 espèces de lianes; Asie du sud-est.
+Gnetum venosum Spruce</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gnetum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnetum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Section Cylindrostachys</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnetum subsect. Cylindrostachys -20 espèces de lianes; Asie du sud-est.
 Gnetum arboreum Foxw.
 Gnetum catasphaericum H.Shao
 Gnetum contractum Markgr.
